--- a/ServiceAreaClient/Docs/智能服务区管理系统_著作权申报材料.xlsx
+++ b/ServiceAreaClient/Docs/智能服务区管理系统_著作权申报材料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>服务区设备数据采集</t>
     <phoneticPr fontId="1"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>两个以上服务区, 通过内网相连接. 在其中一个服务区的PC(设备数据采集端)上, 对其它服务区PC上运行的程序进行远程更新.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>*这个需求因为各个服务区相互距离较远, 所以很有必要</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -155,15 +151,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要求被更新的目标程序同目录下有"UpdaterClient.exe"可执行文件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>另一端(进行更新的一侧)运行"UpdaterServer.exe"可执行文件</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>输入"2"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>两个以上服务区, 通过内网相连接. 在其中一个服务区的PC(设备数据采集端)上, 对其它服务区PC上运行的程序(ServiceAreaClient.exe)进行远程更新.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求被更新的目标程序(ServiceAreaClient.exe)同目录下有"UpdaterClient.exe"可执行文件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>输入新版本的更新文件所在的本地路径</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>输入被更新侧的目标机的IP地址</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下自动完成ServiceAreaClient.exe的 关闭→更新覆盖→重新启动→开始;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各服务区通过内网互相之间进行连接, 有的能上外网, 有的上不了外网. 数据库服务器放在外网.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所以需要把不能接入外网的服务区端采集的数据通过内网先传送到可以接入外网的服务区, 再上传写入到外网数据库服务器.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数据采集端本地, 1.3 ⑤所示的设定画面内设定通过服务器中转的IP地址和端口号.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在接入外网的中转服务器侧, 要运行"ServiceAreaServer.exe"程序.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ServiceAreaServer.exe的配置文件config.ini内容如下:</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -171,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +241,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +279,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1555,15 +1605,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>514349</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1572,8 +1622,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3257550" y="12134850"/>
-          <a:ext cx="247650" cy="266701"/>
+          <a:off x="3257549" y="12163425"/>
+          <a:ext cx="295276" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1681,7 +1731,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
@@ -1689,7 +1739,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1698,8 +1748,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11153775" y="18421350"/>
-          <a:ext cx="247650" cy="266701"/>
+          <a:off x="11125200" y="18449925"/>
+          <a:ext cx="276225" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1813,9 +1863,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1824,8 +1874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10829925" y="19678650"/>
-          <a:ext cx="247650" cy="266701"/>
+          <a:off x="10829925" y="19707225"/>
+          <a:ext cx="276225" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1871,13 +1921,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1918,13 +1968,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1934,7 +1984,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1428750" y="24984075"/>
+          <a:off x="1428750" y="32546925"/>
           <a:ext cx="1400175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1978,13 +2028,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2025,13 +2075,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2081,64 +2131,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1371600" y="34651950"/>
-          <a:ext cx="6448425" cy="4686300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2186,6 +2189,348 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="34632900"/>
+          <a:ext cx="5476875" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="37985700"/>
+          <a:ext cx="5476875" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="41338500"/>
+          <a:ext cx="5486400" cy="2714625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="44691300"/>
+          <a:ext cx="5467350" cy="4848225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447801" y="32146875"/>
+          <a:ext cx="1447800" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="24622125"/>
+          <a:ext cx="5686425" cy="3714750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7543800" y="24622125"/>
+          <a:ext cx="4143375" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2478,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -2608,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:D164"/>
+  <dimension ref="B4:L205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T172" sqref="T172"/>
+    <sheetView topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2619,11 +2964,11 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" s="2" customFormat="1" ht="17.25">
-      <c r="B4" s="2">
+    <row r="4" spans="2:4" s="2" customFormat="1" ht="20.25">
+      <c r="B4" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2667,11 +3012,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:3" s="2" customFormat="1" ht="17.25">
-      <c r="B18" s="2">
+    <row r="18" spans="2:3" s="2" customFormat="1" ht="20.25">
+      <c r="B18" s="3">
         <v>1.2</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2733,11 +3078,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="2:4" s="2" customFormat="1" ht="17.25">
-      <c r="B54" s="2">
+    <row r="54" spans="2:4" s="2" customFormat="1" ht="20.25">
+      <c r="B54" s="3">
         <v>1.3</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2781,50 +3126,93 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="2:4" s="2" customFormat="1" ht="17.25">
-      <c r="B110" s="2">
+    <row r="110" spans="2:4" s="2" customFormat="1" ht="20.25">
+      <c r="B110" s="3">
         <v>1.4</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="111" spans="2:4" s="2" customFormat="1" ht="17.25"/>
-    <row r="112" spans="2:4" s="2" customFormat="1" ht="17.25"/>
-    <row r="113" s="2" customFormat="1" ht="17.25"/>
-    <row r="114" s="2" customFormat="1" ht="17.25"/>
-    <row r="115" s="2" customFormat="1" ht="17.25"/>
-    <row r="116" s="2" customFormat="1" ht="17.25"/>
-    <row r="117" s="2" customFormat="1" ht="17.25"/>
-    <row r="118" s="2" customFormat="1" ht="17.25"/>
-    <row r="119" s="2" customFormat="1" ht="17.25"/>
-    <row r="120" s="2" customFormat="1" ht="17.25"/>
-    <row r="121" s="2" customFormat="1" ht="17.25"/>
-    <row r="122" s="2" customFormat="1" ht="17.25"/>
-    <row r="123" s="2" customFormat="1" ht="17.25"/>
-    <row r="124" s="2" customFormat="1" ht="17.25"/>
-    <row r="125" s="2" customFormat="1" ht="17.25"/>
-    <row r="126" s="2" customFormat="1" ht="17.25"/>
-    <row r="127" s="2" customFormat="1" ht="17.25"/>
-    <row r="128" s="2" customFormat="1" ht="17.25"/>
-    <row r="129" s="2" customFormat="1" ht="17.25"/>
-    <row r="130" s="2" customFormat="1" ht="17.25"/>
-    <row r="131" s="2" customFormat="1" ht="17.25"/>
-    <row r="132" s="2" customFormat="1" ht="17.25"/>
-    <row r="133" s="2" customFormat="1" ht="17.25"/>
-    <row r="134" s="2" customFormat="1" ht="17.25"/>
-    <row r="147" spans="3:3">
-      <c r="C147" s="1" t="s">
+    <row r="112" spans="2:4" s="2" customFormat="1" ht="17.25">
+      <c r="C112" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="3:12" s="2" customFormat="1" ht="17.25">
+      <c r="C113" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="115" spans="3:12" s="2" customFormat="1" ht="17.25">
+      <c r="C115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="117" spans="3:12" s="2" customFormat="1" ht="17.25">
+      <c r="C117" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="119" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="120" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="121" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="122" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="123" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="124" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="125" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="126" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="127" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="128" spans="3:12" s="2" customFormat="1" ht="17.25"/>
+    <row r="129" spans="2:3" s="2" customFormat="1" ht="17.25"/>
+    <row r="130" spans="2:3" s="2" customFormat="1" ht="17.25"/>
+    <row r="131" spans="2:3" s="2" customFormat="1" ht="17.25"/>
+    <row r="132" spans="2:3" s="2" customFormat="1" ht="17.25"/>
+    <row r="133" spans="2:3" s="2" customFormat="1" ht="17.25"/>
+    <row r="134" spans="2:3" s="2" customFormat="1" ht="17.25"/>
+    <row r="138" spans="2:3" ht="20.25">
+      <c r="B138" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="C140" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="C141" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="3:3">
-      <c r="C148" s="1" t="s">
+    <row r="142" spans="2:3">
+      <c r="C142" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="3:3">
-      <c r="C149" s="1" t="s">
+    <row r="150" spans="3:3">
+      <c r="C150" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2833,14 +3221,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="3:3">
-      <c r="C159" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="164" spans="3:3">
-      <c r="C164" s="1" t="s">
-        <v>36</v>
+    <row r="173" spans="3:3">
+      <c r="C173" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceAreaClient/Docs/智能服务区管理系统_著作权申报材料.xlsx
+++ b/ServiceAreaClient/Docs/智能服务区管理系统_著作权申报材料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>服务区设备数据采集</t>
     <phoneticPr fontId="1"/>
@@ -2517,6 +2517,528 @@
         <a:xfrm>
           <a:off x="7543800" y="24622125"/>
           <a:ext cx="4143375" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>280591</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="771526"/>
+          <a:ext cx="8510190" cy="4981574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264320</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="6686550"/>
+          <a:ext cx="8493919" cy="4972050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264319</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="12430126"/>
+          <a:ext cx="8493919" cy="4972050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>12545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="18173700"/>
+          <a:ext cx="8515349" cy="4984595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>296862</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9601201" y="18173700"/>
+          <a:ext cx="8526461" cy="4991099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>23697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="23917276"/>
+          <a:ext cx="8534399" cy="4995746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>167269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9601200" y="23917275"/>
+          <a:ext cx="8486775" cy="4967869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>1395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="29660851"/>
+          <a:ext cx="8496300" cy="4973444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>6969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9601202" y="29660851"/>
+          <a:ext cx="8505823" cy="4979018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>6969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18516601" y="29660850"/>
+          <a:ext cx="8505824" cy="4979019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>280591</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18516600" y="23917274"/>
+          <a:ext cx="8510191" cy="4981575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2823,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -2955,8 +3477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:L205"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3246,14 +3768,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B4:C203"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L118" workbookViewId="0">
+      <selection activeCell="AN168" sqref="AN168"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:3" ht="20.25">
+      <c r="B4" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="20.25">
+      <c r="B38" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="20.25">
+      <c r="B71" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="20.25">
+      <c r="B104" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="20.25">
+      <c r="B137" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" ht="20.25">
+      <c r="B170" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" ht="20.25">
+      <c r="B203" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>